--- a/output/StructureDefinition-eicr-anon-relatedperson.xlsx
+++ b/output/StructureDefinition-eicr-anon-relatedperson.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:32:23+10:00</t>
+    <t>2024-06-13T06:51:52+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-relatedperson.xlsx
+++ b/output/StructureDefinition-eicr-anon-relatedperson.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$91</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="564">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:51:52+10:00</t>
+    <t>2024-06-13T11:16:16+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -534,7 +534,7 @@
 </t>
   </si>
   <si>
-    <t>A value for identifier.system is not allowed, must use data-absent-reason with value 'masked'</t>
+    <t>RelatedPerson.identifier is not allowed, must use data-absent-reason with value 'masked'</t>
   </si>
   <si>
     <t>Provides a reason why the expected value or elements in the element that is extended are missing.</t>
@@ -873,7 +873,7 @@
     <t>RelatedPerson.name.extension:dataAbsentReason</t>
   </si>
   <si>
-    <t>A value is not allowed, must use data-absent-reason with value 'masked'</t>
+    <t>RelatedPerson.name is not allowed, must use data-absent-reason with value 'masked'</t>
   </si>
   <si>
     <t>RelatedPerson.name.extension:dataAbsentReason.id</t>
@@ -1099,6 +1099,9 @@
     <t>RelatedPerson.telecom.extension:dataAbsentReason</t>
   </si>
   <si>
+    <t>RelatedPerson.telecom is not allowed, must use data-absent-reason with value 'masked'</t>
+  </si>
+  <si>
     <t>RelatedPerson.telecom.extension:dataAbsentReason.id</t>
   </si>
   <si>
@@ -1270,7 +1273,65 @@
     <t>The date on which the related person was born.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eicr-anon-rp-bd:Patient.birthDate.value SHALL NOT be present {value.empty()}</t>
+  </si>
+  <si>
     <t>player.birthTime</t>
+  </si>
+  <si>
+    <t>RelatedPerson.birthDate.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>RelatedPerson.birthDate.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.birthDate.extension:dataAbsentReason</t>
+  </si>
+  <si>
+    <t>RelatedPerson.birthDate is not allowed, must use data-absent-reason with value 'masked'</t>
+  </si>
+  <si>
+    <t>RelatedPerson.birthDate.extension:dataAbsentReason.id</t>
+  </si>
+  <si>
+    <t>RelatedPerson.birthDate.extension.id</t>
+  </si>
+  <si>
+    <t>RelatedPerson.birthDate.extension:dataAbsentReason.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.birthDate.extension.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.birthDate.extension:dataAbsentReason.url</t>
+  </si>
+  <si>
+    <t>RelatedPerson.birthDate.extension.url</t>
+  </si>
+  <si>
+    <t>RelatedPerson.birthDate.extension:dataAbsentReason.value[x]</t>
+  </si>
+  <si>
+    <t>RelatedPerson.birthDate.extension.value[x]</t>
+  </si>
+  <si>
+    <t>RelatedPerson.birthDate.value</t>
+  </si>
+  <si>
+    <t>Primitive value for date</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>date.value</t>
   </si>
   <si>
     <t>RelatedPerson.address</t>
@@ -1306,6 +1367,9 @@
   </si>
   <si>
     <t>RelatedPerson.address.extension:dataAbsentReason</t>
+  </si>
+  <si>
+    <t>ReleatedPerson.address is not allowed, must use data-absent-reason with value 'masked'</t>
   </si>
   <si>
     <t>RelatedPerson.address.extension:dataAbsentReason.id</t>
@@ -2008,7 +2072,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM83"/>
+  <dimension ref="A1:AM91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2017,7 +2081,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.72265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.08984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.43359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.8359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -7073,7 +7137,7 @@
         <v>164</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>275</v>
+        <v>349</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>166</v>
@@ -7153,10 +7217,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7262,10 +7326,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7371,10 +7435,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7482,10 +7546,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7589,10 +7653,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7618,10 +7682,10 @@
         <v>103</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7651,10 +7715,10 @@
         <v>185</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -7672,7 +7736,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7681,27 +7745,27 @@
         <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7727,16 +7791,16 @@
         <v>150</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7785,7 +7849,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7800,21 +7864,21 @@
         <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7840,16 +7904,16 @@
         <v>103</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -7877,10 +7941,10 @@
         <v>185</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7898,7 +7962,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7919,15 +7983,15 @@
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7950,16 +8014,16 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8009,7 +8073,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -8035,10 +8099,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8064,10 +8128,10 @@
         <v>227</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8118,7 +8182,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -8144,10 +8208,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8173,14 +8237,14 @@
         <v>103</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -8208,10 +8272,10 @@
         <v>185</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
@@ -8229,7 +8293,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8244,21 +8308,21 @@
         <v>95</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8281,13 +8345,13 @@
         <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8338,7 +8402,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8350,10 +8414,10 @@
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>406</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -8364,10 +8428,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8378,7 +8442,7 @@
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -8387,21 +8451,19 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>407</v>
+        <v>150</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8449,36 +8511,36 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>406</v>
+        <v>153</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>411</v>
+        <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>412</v>
+        <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>413</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8486,10 +8548,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -8501,13 +8563,13 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8546,34 +8608,32 @@
         <v>74</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8584,12 +8644,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>74</v>
       </c>
@@ -8598,10 +8660,10 @@
         <v>83</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>74</v>
@@ -8610,13 +8672,13 @@
         <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>156</v>
+        <v>413</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8655,16 +8717,16 @@
         <v>74</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>161</v>
@@ -8682,7 +8744,7 @@
         <v>134</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8693,26 +8755,24 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>74</v>
@@ -8721,13 +8781,13 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8778,22 +8838,22 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -8804,10 +8864,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8818,7 +8878,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8830,13 +8890,13 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8875,34 +8935,34 @@
         <v>74</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8913,10 +8973,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8924,10 +8984,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8939,22 +8999,24 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>74</v>
@@ -8984,34 +9046,34 @@
         <v>74</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -9022,10 +9084,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9048,24 +9110,22 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>74</v>
@@ -9083,13 +9143,11 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -9107,19 +9165,19 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>126</v>
@@ -9133,10 +9191,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9144,7 +9202,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>83</v>
@@ -9159,13 +9217,13 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>103</v>
+        <v>403</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>182</v>
+        <v>423</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>183</v>
+        <v>424</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9174,7 +9232,7 @@
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>74</v>
@@ -9192,11 +9250,13 @@
         <v>74</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y65" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z65" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>74</v>
@@ -9214,7 +9274,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>187</v>
+        <v>425</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9223,13 +9283,13 @@
         <v>83</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -9240,10 +9300,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9254,31 +9314,29 @@
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>103</v>
+        <v>427</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9291,7 +9349,7 @@
         <v>74</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>430</v>
+        <v>74</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>74</v>
@@ -9303,60 +9361,60 @@
         <v>74</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="Z66" t="s" s="2">
+      <c r="AK66" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AA66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF66" t="s" s="2">
+      <c r="AL66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>434</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9376,20 +9434,18 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>436</v>
+        <v>151</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -9402,7 +9458,7 @@
         <v>74</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>439</v>
+        <v>74</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>74</v>
@@ -9414,13 +9470,13 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>440</v>
+        <v>74</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>441</v>
+        <v>74</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9438,7 +9494,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>442</v>
+        <v>153</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9450,24 +9506,24 @@
         <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>443</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9475,10 +9531,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -9487,23 +9543,19 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>445</v>
+        <v>156</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>74</v>
       </c>
@@ -9515,7 +9567,7 @@
         <v>74</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>448</v>
+        <v>74</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>74</v>
@@ -9539,77 +9591,79 @@
         <v>74</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>449</v>
+        <v>161</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>450</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="D69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>453</v>
+        <v>166</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9624,7 +9678,7 @@
         <v>74</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>454</v>
+        <v>74</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>74</v>
@@ -9660,7 +9714,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>455</v>
+        <v>161</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9672,28 +9726,28 @@
         <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>456</v>
+        <v>167</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>457</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>459</v>
+        <v>74</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9709,16 +9763,16 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>460</v>
+        <v>151</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>461</v>
+        <v>152</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9733,7 +9787,7 @@
         <v>74</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>462</v>
+        <v>74</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>74</v>
@@ -9769,7 +9823,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>463</v>
+        <v>153</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9778,38 +9832,38 @@
         <v>83</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>464</v>
+        <v>154</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>465</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>467</v>
+        <v>74</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -9818,20 +9872,18 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>468</v>
+        <v>156</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>74</v>
@@ -9844,7 +9896,7 @@
         <v>74</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>471</v>
+        <v>74</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>74</v>
@@ -9868,56 +9920,56 @@
         <v>74</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>472</v>
+        <v>161</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>473</v>
+        <v>74</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>474</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>476</v>
+        <v>74</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>83</v>
@@ -9929,25 +9981,27 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>477</v>
+        <v>175</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>74</v>
@@ -9989,10 +10043,10 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>479</v>
+        <v>179</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>83</v>
@@ -10001,32 +10055,32 @@
         <v>74</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>480</v>
+        <v>126</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>481</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>482</v>
+        <v>445</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>483</v>
+        <v>74</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>83</v>
@@ -10038,16 +10092,16 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>484</v>
+        <v>182</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>485</v>
+        <v>183</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10056,13 +10110,13 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>486</v>
+        <v>74</v>
       </c>
       <c r="U73" t="s" s="2">
         <v>74</v>
@@ -10074,13 +10128,11 @@
         <v>74</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>74</v>
@@ -10098,7 +10150,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>487</v>
+        <v>187</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10107,27 +10159,27 @@
         <v>83</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>488</v>
+        <v>126</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>489</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10144,24 +10196,26 @@
         <v>74</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>491</v>
+        <v>447</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>492</v>
+        <v>448</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>74</v>
       </c>
@@ -10173,7 +10227,7 @@
         <v>74</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>74</v>
+        <v>451</v>
       </c>
       <c r="U74" t="s" s="2">
         <v>74</v>
@@ -10185,13 +10239,13 @@
         <v>74</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>74</v>
+        <v>452</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>74</v>
+        <v>453</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>74</v>
@@ -10209,7 +10263,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10224,21 +10278,21 @@
         <v>95</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>495</v>
+        <v>292</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>496</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>497</v>
+        <v>456</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>497</v>
+        <v>456</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10261,18 +10315,18 @@
         <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>74</v>
       </c>
@@ -10284,7 +10338,7 @@
         <v>74</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>501</v>
+        <v>460</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>74</v>
@@ -10296,13 +10350,13 @@
         <v>74</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>74</v>
+        <v>461</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>74</v>
+        <v>462</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>74</v>
@@ -10320,7 +10374,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10335,21 +10389,21 @@
         <v>95</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>503</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10360,7 +10414,7 @@
         <v>75</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>74</v>
@@ -10369,20 +10423,22 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>505</v>
+        <v>150</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="O76" t="s" s="2">
-        <v>508</v>
+        <v>298</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>74</v>
@@ -10395,7 +10451,7 @@
         <v>74</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>74</v>
+        <v>469</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>74</v>
@@ -10431,13 +10487,13 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>74</v>
@@ -10446,21 +10502,21 @@
         <v>95</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>509</v>
+        <v>300</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>510</v>
+        <v>471</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10471,7 +10527,7 @@
         <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>74</v>
@@ -10480,16 +10536,16 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10504,7 +10560,7 @@
         <v>74</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>74</v>
+        <v>475</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>74</v>
@@ -10540,13 +10596,13 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>74</v>
@@ -10555,32 +10611,32 @@
         <v>95</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>514</v>
+        <v>477</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>515</v>
+        <v>74</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>74</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>516</v>
+        <v>479</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>74</v>
+        <v>480</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>74</v>
@@ -10589,23 +10645,19 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>517</v>
+        <v>150</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>518</v>
+        <v>481</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10617,7 +10669,7 @@
         <v>74</v>
       </c>
       <c r="T78" t="s" s="2">
-        <v>74</v>
+        <v>483</v>
       </c>
       <c r="U78" t="s" s="2">
         <v>74</v>
@@ -10653,13 +10705,13 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>74</v>
@@ -10668,25 +10720,25 @@
         <v>95</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>522</v>
+        <v>485</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>74</v>
+        <v>486</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>74</v>
+        <v>488</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10702,18 +10754,20 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>150</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>151</v>
+        <v>489</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>74</v>
@@ -10726,7 +10780,7 @@
         <v>74</v>
       </c>
       <c r="T79" t="s" s="2">
-        <v>74</v>
+        <v>492</v>
       </c>
       <c r="U79" t="s" s="2">
         <v>74</v>
@@ -10762,7 +10816,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>153</v>
+        <v>493</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10774,35 +10828,35 @@
         <v>74</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>154</v>
+        <v>494</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>74</v>
+        <v>495</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>128</v>
+        <v>497</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>74</v>
@@ -10811,20 +10865,18 @@
         <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>130</v>
+        <v>498</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>74</v>
@@ -10873,72 +10925,68 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>161</v>
+        <v>500</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>154</v>
+        <v>501</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>74</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>74</v>
       </c>
@@ -10950,7 +10998,7 @@
         <v>74</v>
       </c>
       <c r="T81" t="s" s="2">
-        <v>74</v>
+        <v>507</v>
       </c>
       <c r="U81" t="s" s="2">
         <v>74</v>
@@ -10986,36 +11034,36 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>126</v>
+        <v>509</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>74</v>
+        <v>510</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11023,7 +11071,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>83</v>
@@ -11035,23 +11083,21 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>74</v>
       </c>
@@ -11075,13 +11121,13 @@
         <v>74</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>74</v>
@@ -11099,10 +11145,10 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>83</v>
@@ -11114,21 +11160,21 @@
         <v>95</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>74</v>
+        <v>517</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11148,22 +11194,20 @@
         <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>74</v>
@@ -11176,7 +11220,7 @@
         <v>74</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>74</v>
+        <v>522</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>74</v>
@@ -11212,7 +11256,7 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11227,17 +11271,909 @@
         <v>95</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="O86" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AL83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM83" t="s" s="2">
+      <c r="P86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM83">
+  <autoFilter ref="A1:AM91">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11247,7 +12183,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI90">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-eicr-anon-relatedperson.xlsx
+++ b/output/StructureDefinition-eicr-anon-relatedperson.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-14T06:31:35+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-relatedperson.xlsx
+++ b/output/StructureDefinition-eicr-anon-relatedperson.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-18T16:49:21+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-relatedperson.xlsx
+++ b/output/StructureDefinition-eicr-anon-relatedperson.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T16:49:21+10:00</t>
+    <t>2024-06-18T18:40:58+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-relatedperson.xlsx
+++ b/output/StructureDefinition-eicr-anon-relatedperson.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T18:40:58+10:00</t>
+    <t>2024-06-21T10:51:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-relatedperson.xlsx
+++ b/output/StructureDefinition-eicr-anon-relatedperson.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T10:51:28+10:00</t>
+    <t>2024-06-21T11:31:43+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-relatedperson.xlsx
+++ b/output/StructureDefinition-eicr-anon-relatedperson.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T11:31:43+10:00</t>
+    <t>2024-06-25T09:09:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-relatedperson.xlsx
+++ b/output/StructureDefinition-eicr-anon-relatedperson.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:09:40+10:00</t>
+    <t>2024-06-26T05:55:02+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-relatedperson.xlsx
+++ b/output/StructureDefinition-eicr-anon-relatedperson.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T05:55:02+10:00</t>
+    <t>2024-06-26T06:31:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,8 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This RelatedPerson profile represents an anonymized eCR RelatedPerson.
-It is based on the **RelatedPerson** resource with further constraints to require masking of some data elements.</t>
+    <t>This RelatedPerson profile represents an anonymized eCR RelatedPerson.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/StructureDefinition-eicr-anon-relatedperson.xlsx
+++ b/output/StructureDefinition-eicr-anon-relatedperson.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T06:31:28+10:00</t>
+    <t>2024-06-26T06:54:29+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-relatedperson.xlsx
+++ b/output/StructureDefinition-eicr-anon-relatedperson.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="590">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T06:54:29+10:00</t>
+    <t>2024-06-28T19:57:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -381,7 +381,188 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {`div` ~ '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'}</t>
+  </si>
+  <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text.extension:dataAbsentReason</t>
+  </si>
+  <si>
+    <t>dataAbsentReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {data-absent-reason}
+</t>
+  </si>
+  <si>
+    <t>Use data-absent-reason with value 'masked'</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value or elements in the element that is extended are missing.</t>
+  </si>
+  <si>
+    <t>ANY.nullFlavor</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text.extension:dataAbsentReason.id</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text.extension:dataAbsentReason.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text.extension.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text.extension:dataAbsentReason.url</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text.extension:dataAbsentReason.value[x]</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>masked</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>RelatedPerson.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Set to '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>RelatedPerson.contained</t>
@@ -407,9 +588,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>RelatedPerson.extension</t>
   </si>
   <si>
@@ -417,10 +595,6 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
@@ -431,10 +605,6 @@
   </si>
   <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>RelatedPerson.modifierExtension</t>
@@ -485,73 +655,21 @@
     <t>RelatedPerson.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>RelatedPerson.identifier.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>RelatedPerson.identifier.extension:dataAbsentReason</t>
   </si>
   <si>
-    <t>dataAbsentReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
-</t>
-  </si>
-  <si>
     <t>RelatedPerson.identifier is not allowed, must use data-absent-reason with value 'masked'</t>
   </si>
   <si>
-    <t>Provides a reason why the expected value or elements in the element that is extended are missing.</t>
-  </si>
-  <si>
-    <t>ANY.nullFlavor</t>
-  </si>
-  <si>
     <t>RelatedPerson.identifier.extension:dataAbsentReason.id</t>
   </si>
   <si>
     <t>RelatedPerson.identifier.extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>RelatedPerson.identifier.extension:dataAbsentReason.extension</t>
   </si>
   <si>
@@ -564,47 +682,10 @@
     <t>RelatedPerson.identifier.extension.url</t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/data-absent-reason</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
     <t>RelatedPerson.identifier.extension:dataAbsentReason.value[x]</t>
   </si>
   <si>
     <t>RelatedPerson.identifier.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>masked</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext-1
-</t>
   </si>
   <si>
     <t>RelatedPerson.identifier.use</t>
@@ -2071,7 +2152,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM91"/>
+  <dimension ref="A1:AM100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2889,10 +2970,10 @@
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -2903,21 +2984,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>74</v>
@@ -2937,9 +3018,7 @@
       <c r="M8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="N8" t="s" s="2">
-        <v>124</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>74</v>
@@ -2988,22 +3067,22 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -3014,18 +3093,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>76</v>
@@ -3040,17 +3119,15 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>132</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>74</v>
@@ -3087,16 +3164,16 @@
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>133</v>
@@ -3114,7 +3191,7 @@
         <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -3128,43 +3205,41 @@
         <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
       </c>
@@ -3212,7 +3287,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -3227,7 +3302,7 @@
         <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -3238,10 +3313,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3252,7 +3327,7 @@
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -3261,21 +3336,19 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
       </c>
@@ -3323,36 +3396,36 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3363,7 +3436,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -3375,13 +3448,13 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3420,34 +3493,34 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -3458,10 +3531,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3472,7 +3545,7 @@
         <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -3484,22 +3557,24 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>74</v>
@@ -3529,34 +3604,34 @@
         <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -3567,14 +3642,12 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>74</v>
       </c>
@@ -3586,7 +3659,7 @@
         <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>74</v>
@@ -3595,13 +3668,13 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3610,7 +3683,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>74</v>
@@ -3628,13 +3701,11 @@
         <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>74</v>
@@ -3658,16 +3729,16 @@
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3678,10 +3749,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3689,7 +3760,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>83</v>
@@ -3704,13 +3775,13 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3737,13 +3808,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3761,22 +3832,22 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3787,10 +3858,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3798,10 +3869,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -3813,15 +3884,17 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3858,34 +3931,34 @@
         <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -3896,21 +3969,21 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3922,16 +3995,16 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3939,7 +4012,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>74</v>
@@ -3981,13 +4054,13 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
@@ -3996,7 +4069,7 @@
         <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
@@ -4007,21 +4080,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -4033,22 +4106,24 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>74</v>
@@ -4066,11 +4141,13 @@
         <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>74</v>
@@ -4088,22 +4165,22 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -4121,14 +4198,14 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -4137,10 +4214,10 @@
         <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>190</v>
@@ -4149,10 +4226,10 @@
         <v>191</v>
       </c>
       <c r="N19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -4177,13 +4254,13 @@
         <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>74</v>
@@ -4201,36 +4278,36 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4241,7 +4318,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -4253,19 +4330,17 @@
         <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -4290,13 +4365,13 @@
         <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>74</v>
@@ -4314,36 +4389,36 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4363,23 +4438,19 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>74</v>
       </c>
@@ -4391,7 +4462,7 @@
         <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>74</v>
@@ -4427,7 +4498,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4439,24 +4510,24 @@
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4464,10 +4535,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4476,20 +4547,18 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>74</v>
@@ -4502,7 +4571,7 @@
         <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>74</v>
@@ -4526,77 +4595,79 @@
         <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4647,36 +4718,36 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4696,20 +4767,18 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>122</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4758,7 +4827,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4767,27 +4836,27 @@
         <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>240</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4798,38 +4867,32 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q25" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4861,37 +4924,37 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4899,10 +4962,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4922,27 +4985,27 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>251</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>74</v>
@@ -4984,7 +5047,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>152</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>83</v>
@@ -4996,24 +5059,24 @@
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>255</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5021,10 +5084,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -5033,27 +5096,25 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>157</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>259</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>74</v>
@@ -5071,13 +5132,11 @@
         <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>74</v>
@@ -5095,36 +5154,36 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>161</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>153</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>263</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5135,29 +5194,31 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>103</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O28" t="s" s="2">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -5182,13 +5243,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -5206,36 +5267,36 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>269</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>271</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5255,19 +5316,23 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>74</v>
       </c>
@@ -5291,13 +5356,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -5315,7 +5380,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5327,24 +5392,24 @@
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5352,10 +5417,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -5364,19 +5429,23 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -5388,7 +5457,7 @@
         <v>74</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>74</v>
@@ -5412,81 +5481,81 @@
         <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="I31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5499,7 +5568,7 @@
         <v>74</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>74</v>
@@ -5535,36 +5604,36 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5584,16 +5653,16 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>85</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>152</v>
+        <v>255</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5644,7 +5713,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5653,27 +5722,27 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5684,7 +5753,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5693,18 +5762,20 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -5741,48 +5812,48 @@
         <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>161</v>
+        <v>264</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>74</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5790,7 +5861,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>83</v>
@@ -5799,30 +5870,34 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>97</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Q34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="R34" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>74</v>
@@ -5864,10 +5939,10 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>179</v>
+        <v>267</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>83</v>
@@ -5876,13 +5951,13 @@
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>126</v>
+        <v>274</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5890,10 +5965,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5913,25 +5988,27 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>74</v>
@@ -5949,11 +6026,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5971,36 +6050,36 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>187</v>
+        <v>276</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6011,31 +6090,29 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>225</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>74</v>
@@ -6060,13 +6137,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -6084,13 +6161,13 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
@@ -6099,21 +6176,21 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6124,7 +6201,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -6136,19 +6213,17 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -6197,40 +6272,40 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6246,20 +6321,18 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>122</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -6308,7 +6381,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>124</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6320,32 +6393,32 @@
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>308</v>
+        <v>125</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>309</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>311</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>76</v>
@@ -6357,20 +6430,18 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -6407,19 +6478,19 @@
         <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>315</v>
+        <v>133</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6431,53 +6502,55 @@
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>317</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>139</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6528,7 +6601,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>321</v>
+        <v>133</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6540,24 +6613,24 @@
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>323</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6568,7 +6641,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -6577,16 +6650,16 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
+        <v>122</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>326</v>
+        <v>123</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6637,36 +6710,36 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>327</v>
+        <v>124</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>328</v>
+        <v>125</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>329</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6677,7 +6750,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6686,21 +6759,19 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>331</v>
+        <v>128</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>332</v>
+        <v>129</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6736,48 +6807,48 @@
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>334</v>
+        <v>133</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>335</v>
+        <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6785,10 +6856,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6797,29 +6868,27 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>338</v>
+        <v>97</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>339</v>
+        <v>148</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>340</v>
+        <v>149</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>74</v>
@@ -6861,36 +6930,36 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>337</v>
+        <v>152</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>343</v>
+        <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>344</v>
+        <v>153</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>345</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6898,7 +6967,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>83</v>
@@ -6913,13 +6982,13 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6928,7 +6997,7 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>74</v>
@@ -6946,13 +7015,11 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -6970,22 +7037,22 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6996,10 +7063,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7007,31 +7074,35 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>74</v>
       </c>
@@ -7055,94 +7126,96 @@
         <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>315</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>74</v>
+        <v>316</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>161</v>
+        <v>317</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="I46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
@@ -7190,40 +7263,40 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>161</v>
+        <v>325</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>167</v>
+        <v>326</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>74</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7239,18 +7312,20 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -7299,7 +7374,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>153</v>
+        <v>333</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7308,38 +7383,38 @@
         <v>83</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>154</v>
+        <v>334</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>74</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>74</v>
+        <v>337</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -7348,18 +7423,20 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>156</v>
+        <v>338</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
@@ -7396,19 +7473,19 @@
         <v>74</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>161</v>
+        <v>341</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7420,24 +7497,24 @@
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>74</v>
+        <v>342</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>74</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7445,10 +7522,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -7457,27 +7534,25 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>175</v>
+        <v>345</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>74</v>
@@ -7519,36 +7594,36 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>179</v>
+        <v>347</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>126</v>
+        <v>348</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>74</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7556,10 +7631,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -7568,16 +7643,16 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>182</v>
+        <v>351</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>183</v>
+        <v>352</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7586,7 +7661,7 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>74</v>
@@ -7604,11 +7679,13 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -7626,36 +7703,36 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>187</v>
+        <v>353</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>126</v>
+        <v>354</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>74</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7678,16 +7755,18 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7711,13 +7790,13 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>361</v>
+        <v>74</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>362</v>
+        <v>74</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -7735,7 +7814,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7744,27 +7823,27 @@
         <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>364</v>
+        <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7775,7 +7854,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7787,19 +7866,19 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>150</v>
+        <v>364</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O52" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7848,36 +7927,36 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>369</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7894,26 +7973,22 @@
         <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>376</v>
+        <v>122</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>74</v>
       </c>
@@ -7937,13 +8012,13 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>380</v>
+        <v>74</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>381</v>
+        <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7961,7 +8036,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>382</v>
+        <v>124</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7973,24 +8048,24 @@
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>383</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7998,10 +8073,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -8010,20 +8085,18 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>385</v>
+        <v>127</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>386</v>
+        <v>128</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -8060,77 +8133,79 @@
         <v>74</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>389</v>
+        <v>133</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>392</v>
+        <v>139</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8181,36 +8256,36 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>393</v>
+        <v>133</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>335</v>
+        <v>140</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8230,21 +8305,19 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>395</v>
+        <v>122</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>396</v>
+        <v>123</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>74</v>
       </c>
@@ -8268,13 +8341,13 @@
         <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>399</v>
+        <v>74</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
@@ -8292,7 +8365,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>394</v>
+        <v>124</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8301,27 +8374,27 @@
         <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>401</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8332,7 +8405,7 @@
         <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>74</v>
@@ -8341,16 +8414,16 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>403</v>
+        <v>127</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>404</v>
+        <v>128</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>405</v>
+        <v>129</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8389,34 +8462,34 @@
         <v>74</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>402</v>
+        <v>133</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>406</v>
+        <v>134</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>407</v>
+        <v>74</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -8427,10 +8500,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8438,7 +8511,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>83</v>
@@ -8453,22 +8526,24 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>74</v>
@@ -8510,22 +8585,22 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8536,10 +8611,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8550,7 +8625,7 @@
         <v>83</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -8562,7 +8637,7 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>156</v>
@@ -8577,7 +8652,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>74</v>
@@ -8595,26 +8670,26 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AC59" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>161</v>
@@ -8623,16 +8698,16 @@
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8643,41 +8718,39 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J60" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="I60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="K60" t="s" s="2">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>166</v>
+        <v>386</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8704,13 +8777,13 @@
         <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>74</v>
+        <v>387</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>74</v>
+        <v>388</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
@@ -8728,36 +8801,36 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>161</v>
+        <v>389</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>74</v>
+        <v>390</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>167</v>
+        <v>391</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>74</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8777,19 +8850,23 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>151</v>
+        <v>394</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
       </c>
@@ -8837,7 +8914,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>153</v>
+        <v>398</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8846,27 +8923,27 @@
         <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>154</v>
+        <v>399</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>74</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8877,28 +8954,32 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>156</v>
+        <v>402</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
       </c>
@@ -8922,60 +9003,60 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>74</v>
+        <v>406</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>74</v>
+        <v>407</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>161</v>
+        <v>408</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>74</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8983,7 +9064,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>83</v>
@@ -8995,19 +9076,19 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>97</v>
+        <v>411</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>175</v>
+        <v>412</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>176</v>
+        <v>413</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>177</v>
+        <v>414</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9015,7 +9096,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>74</v>
@@ -9057,10 +9138,10 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>179</v>
+        <v>415</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>83</v>
@@ -9069,24 +9150,24 @@
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9094,7 +9175,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>83</v>
@@ -9106,16 +9187,16 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>182</v>
+        <v>417</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9124,7 +9205,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>74</v>
@@ -9142,11 +9223,13 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y64" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z64" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -9164,7 +9247,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>187</v>
+        <v>419</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9173,27 +9256,27 @@
         <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>126</v>
+        <v>361</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9213,19 +9296,21 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>403</v>
+        <v>103</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
       </c>
@@ -9249,13 +9334,13 @@
         <v>74</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>74</v>
+        <v>424</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>74</v>
+        <v>425</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>74</v>
@@ -9273,7 +9358,7 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
@@ -9285,24 +9370,24 @@
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>74</v>
+        <v>426</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>74</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9313,7 +9398,7 @@
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
@@ -9325,18 +9410,16 @@
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>430</v>
-      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>74</v>
       </c>
@@ -9384,28 +9467,28 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>433</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -9436,13 +9519,13 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>151</v>
+        <v>435</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>152</v>
+        <v>436</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9493,7 +9576,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9508,7 +9591,7 @@
         <v>74</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
@@ -9519,10 +9602,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9545,13 +9628,13 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9590,19 +9673,17 @@
         <v>74</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9628,13 +9709,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>74</v>
@@ -9656,13 +9737,13 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9713,7 +9794,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9728,7 +9809,7 @@
         <v>134</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
@@ -9739,10 +9820,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9768,10 +9849,10 @@
         <v>85</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9822,7 +9903,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9831,13 +9912,13 @@
         <v>83</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
@@ -9848,10 +9929,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9874,13 +9955,13 @@
         <v>74</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9919,19 +10000,19 @@
         <v>74</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9957,10 +10038,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9986,13 +10067,13 @@
         <v>97</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10000,7 +10081,7 @@
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>74</v>
@@ -10042,7 +10123,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>83</v>
@@ -10057,7 +10138,7 @@
         <v>74</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>74</v>
@@ -10068,10 +10149,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10097,10 +10178,10 @@
         <v>103</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10109,7 +10190,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>74</v>
@@ -10127,11 +10208,11 @@
         <v>74</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>74</v>
@@ -10149,7 +10230,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10158,13 +10239,13 @@
         <v>83</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>74</v>
@@ -10175,10 +10256,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10195,26 +10276,22 @@
         <v>74</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>103</v>
+        <v>429</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O74" t="s" s="2">
         <v>450</v>
       </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>74</v>
       </c>
@@ -10226,44 +10303,44 @@
         <v>74</v>
       </c>
       <c r="T74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF74" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="U74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
       </c>
@@ -10274,24 +10351,24 @@
         <v>74</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>292</v>
+        <v>74</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>455</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10302,7 +10379,7 @@
         <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>74</v>
@@ -10314,18 +10391,18 @@
         <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>103</v>
+        <v>453</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>74</v>
       </c>
@@ -10337,7 +10414,7 @@
         <v>74</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>460</v>
+        <v>74</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>74</v>
@@ -10349,13 +10426,13 @@
         <v>74</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>461</v>
+        <v>74</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>462</v>
+        <v>74</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>74</v>
@@ -10373,36 +10450,36 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>95</v>
+        <v>457</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>292</v>
+        <v>458</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10422,23 +10499,19 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>466</v>
+        <v>122</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>74</v>
       </c>
@@ -10450,7 +10523,7 @@
         <v>74</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>469</v>
+        <v>74</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>74</v>
@@ -10486,7 +10559,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>470</v>
+        <v>124</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10498,24 +10571,24 @@
         <v>74</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>471</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10523,7 +10596,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>76</v>
@@ -10535,16 +10608,16 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>473</v>
+        <v>128</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>474</v>
+        <v>129</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10559,7 +10632,7 @@
         <v>74</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>475</v>
+        <v>74</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>74</v>
@@ -10583,19 +10656,19 @@
         <v>74</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>476</v>
+        <v>133</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10607,53 +10680,55 @@
         <v>74</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>477</v>
+        <v>74</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>478</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>461</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="D78" t="s" s="2">
-        <v>480</v>
+        <v>74</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>482</v>
+        <v>139</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10668,7 +10743,7 @@
         <v>74</v>
       </c>
       <c r="T78" t="s" s="2">
-        <v>483</v>
+        <v>74</v>
       </c>
       <c r="U78" t="s" s="2">
         <v>74</v>
@@ -10704,40 +10779,40 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>484</v>
+        <v>133</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>485</v>
+        <v>140</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>486</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>488</v>
+        <v>74</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10753,20 +10828,18 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>489</v>
+        <v>122</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>74</v>
@@ -10779,7 +10852,7 @@
         <v>74</v>
       </c>
       <c r="T79" t="s" s="2">
-        <v>492</v>
+        <v>74</v>
       </c>
       <c r="U79" t="s" s="2">
         <v>74</v>
@@ -10815,7 +10888,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>493</v>
+        <v>124</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10824,38 +10897,38 @@
         <v>83</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>494</v>
+        <v>125</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>495</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>497</v>
+        <v>74</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>74</v>
@@ -10864,16 +10937,16 @@
         <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>498</v>
+        <v>128</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>499</v>
+        <v>129</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10912,56 +10985,56 @@
         <v>74</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>500</v>
+        <v>133</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>501</v>
+        <v>74</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>502</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>504</v>
+        <v>74</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>83</v>
@@ -10973,31 +11046,33 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="T81" t="s" s="2">
-        <v>507</v>
+        <v>74</v>
       </c>
       <c r="U81" t="s" s="2">
         <v>74</v>
@@ -11033,10 +11108,10 @@
         <v>74</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>508</v>
+        <v>152</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>83</v>
@@ -11045,24 +11120,24 @@
         <v>74</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>509</v>
+        <v>153</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>510</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11070,7 +11145,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>83</v>
@@ -11082,27 +11157,25 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>512</v>
+        <v>156</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>74</v>
@@ -11120,13 +11193,11 @@
         <v>74</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>74</v>
@@ -11144,7 +11215,7 @@
         <v>74</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>515</v>
+        <v>161</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
@@ -11153,27 +11224,27 @@
         <v>83</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>516</v>
+        <v>153</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>517</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11190,23 +11261,25 @@
         <v>74</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="O83" t="s" s="2">
-        <v>521</v>
+        <v>476</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>74</v>
@@ -11219,7 +11292,7 @@
         <v>74</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>522</v>
+        <v>477</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>74</v>
@@ -11231,13 +11304,13 @@
         <v>74</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>74</v>
+        <v>478</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>74</v>
+        <v>479</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>74</v>
@@ -11255,7 +11328,7 @@
         <v>74</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>523</v>
+        <v>480</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11270,21 +11343,21 @@
         <v>95</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>524</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>525</v>
+        <v>482</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>525</v>
+        <v>482</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11295,7 +11368,7 @@
         <v>75</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>74</v>
@@ -11304,21 +11377,21 @@
         <v>74</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>526</v>
+        <v>103</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>527</v>
+        <v>483</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>74</v>
       </c>
@@ -11330,7 +11403,7 @@
         <v>74</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>74</v>
+        <v>486</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>74</v>
@@ -11342,13 +11415,13 @@
         <v>74</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>74</v>
+        <v>487</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>74</v>
+        <v>488</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>74</v>
@@ -11366,13 +11439,13 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>74</v>
@@ -11381,21 +11454,21 @@
         <v>95</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>530</v>
+        <v>318</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>531</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>532</v>
+        <v>491</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>532</v>
+        <v>491</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11415,19 +11488,23 @@
         <v>74</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>227</v>
+        <v>121</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>533</v>
+        <v>492</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>74</v>
       </c>
@@ -11439,7 +11516,7 @@
         <v>74</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>74</v>
+        <v>495</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>74</v>
@@ -11475,7 +11552,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11490,21 +11567,21 @@
         <v>95</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>535</v>
+        <v>326</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>536</v>
+        <v>74</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>74</v>
+        <v>497</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>537</v>
+        <v>498</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>537</v>
+        <v>498</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11524,23 +11601,19 @@
         <v>74</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>538</v>
+        <v>121</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>539</v>
+        <v>499</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>74</v>
       </c>
@@ -11552,7 +11625,7 @@
         <v>74</v>
       </c>
       <c r="T86" t="s" s="2">
-        <v>74</v>
+        <v>501</v>
       </c>
       <c r="U86" t="s" s="2">
         <v>74</v>
@@ -11588,7 +11661,7 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
@@ -11603,25 +11676,25 @@
         <v>95</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>74</v>
+        <v>504</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>74</v>
+        <v>506</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11637,16 +11710,16 @@
         <v>74</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>151</v>
+        <v>507</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>152</v>
+        <v>508</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11661,7 +11734,7 @@
         <v>74</v>
       </c>
       <c r="T87" t="s" s="2">
-        <v>74</v>
+        <v>509</v>
       </c>
       <c r="U87" t="s" s="2">
         <v>74</v>
@@ -11697,7 +11770,7 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>153</v>
+        <v>510</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -11709,35 +11782,35 @@
         <v>74</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>154</v>
+        <v>511</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>74</v>
+        <v>512</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>128</v>
+        <v>514</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>74</v>
@@ -11746,19 +11819,19 @@
         <v>74</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>130</v>
+        <v>515</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>132</v>
+        <v>517</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11772,7 +11845,7 @@
         <v>74</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>74</v>
+        <v>518</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>74</v>
@@ -11808,72 +11881,68 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>161</v>
+        <v>519</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>154</v>
+        <v>520</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>74</v>
+        <v>521</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>74</v>
       </c>
@@ -11921,44 +11990,44 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>126</v>
+        <v>527</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>74</v>
+        <v>528</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>74</v>
+        <v>530</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>83</v>
@@ -11970,23 +12039,19 @@
         <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>556</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>74</v>
       </c>
@@ -11998,7 +12063,7 @@
         <v>74</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>74</v>
+        <v>533</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>74</v>
@@ -12010,13 +12075,13 @@
         <v>74</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>74</v>
@@ -12034,10 +12099,10 @@
         <v>74</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>83</v>
@@ -12049,21 +12114,21 @@
         <v>95</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>74</v>
+        <v>536</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12083,23 +12148,21 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>74</v>
       </c>
@@ -12147,7 +12210,7 @@
         <v>74</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
@@ -12162,17 +12225,1020 @@
         <v>95</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AL91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM91" t="s" s="2">
+      <c r="B95" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM91">
+  <autoFilter ref="A1:AM100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12182,7 +13248,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI90">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-eicr-anon-relatedperson.xlsx
+++ b/output/StructureDefinition-eicr-anon-relatedperson.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T19:57:37+10:00</t>
+    <t>2024-06-28T20:58:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-relatedperson.xlsx
+++ b/output/StructureDefinition-eicr-anon-relatedperson.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T20:58:40+10:00</t>
+    <t>2024-06-29T16:05:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -382,7 +382,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {`div` ~ '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'}</t>
+eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {exists() implies `div`.toString().matches('&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;\\s*&lt;p&gt;MASKED&lt;/p&gt;\\s*&lt;/div&gt;')}</t>
   </si>
   <si>
     <t>Act.text?</t>
